--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Hmmr</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2004523333333333</v>
+        <v>0.3811346666666666</v>
       </c>
       <c r="H2">
-        <v>0.6013569999999999</v>
+        <v>1.143404</v>
       </c>
       <c r="I2">
-        <v>0.00350521822469015</v>
+        <v>0.006090539251284117</v>
       </c>
       <c r="J2">
-        <v>0.003553987077041381</v>
+        <v>0.006344804244995461</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.663160333333333</v>
+        <v>4.621119666666666</v>
       </c>
       <c r="N2">
-        <v>13.989481</v>
+        <v>13.863359</v>
       </c>
       <c r="O2">
-        <v>0.2536251292035914</v>
+        <v>0.1404336851258165</v>
       </c>
       <c r="P2">
-        <v>0.2861845043282563</v>
+        <v>0.164215326096801</v>
       </c>
       <c r="Q2">
-        <v>0.9347413695241109</v>
+        <v>1.761268903781777</v>
       </c>
       <c r="R2">
-        <v>8.412672325716999</v>
+        <v>15.851420134036</v>
       </c>
       <c r="S2">
-        <v>0.0008890114251238224</v>
+        <v>0.0008553168714612598</v>
       </c>
       <c r="T2">
-        <v>0.001017096030032116</v>
+        <v>0.001041914098112297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2004523333333333</v>
+        <v>0.3811346666666666</v>
       </c>
       <c r="H3">
-        <v>0.6013569999999999</v>
+        <v>1.143404</v>
       </c>
       <c r="I3">
-        <v>0.00350521822469015</v>
+        <v>0.006090539251284117</v>
       </c>
       <c r="J3">
-        <v>0.003553987077041381</v>
+        <v>0.006344804244995461</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>17.165734</v>
       </c>
       <c r="O3">
-        <v>0.3112096512818797</v>
+        <v>0.1738862337410092</v>
       </c>
       <c r="P3">
-        <v>0.3511614959997941</v>
+        <v>0.203332872394125</v>
       </c>
       <c r="Q3">
-        <v>1.146970477893111</v>
+        <v>2.180818768726222</v>
       </c>
       <c r="R3">
-        <v>10.322734301038</v>
+        <v>19.627368918536</v>
       </c>
       <c r="S3">
-        <v>0.001090857741372711</v>
+        <v>0.001059060931857581</v>
       </c>
       <c r="T3">
-        <v>0.001248023418737787</v>
+        <v>0.001290107271913364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2004523333333333</v>
+        <v>0.3811346666666666</v>
       </c>
       <c r="H4">
-        <v>0.6013569999999999</v>
+        <v>1.143404</v>
       </c>
       <c r="I4">
-        <v>0.00350521822469015</v>
+        <v>0.006090539251284117</v>
       </c>
       <c r="J4">
-        <v>0.003553987077041381</v>
+        <v>0.006344804244995461</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7592263333333333</v>
+        <v>1.836022</v>
       </c>
       <c r="N4">
-        <v>2.277679</v>
+        <v>5.508065999999999</v>
       </c>
       <c r="O4">
-        <v>0.0412936427490989</v>
+        <v>0.05579585772078871</v>
       </c>
       <c r="P4">
-        <v>0.04659475470418655</v>
+        <v>0.06524456694461292</v>
       </c>
       <c r="Q4">
-        <v>0.1521886900447778</v>
+        <v>0.6997716329626665</v>
       </c>
       <c r="R4">
-        <v>1.369698210403</v>
+        <v>6.297944696663999</v>
       </c>
       <c r="S4">
-        <v>0.0001447432291279857</v>
+        <v>0.0003398268615075276</v>
       </c>
       <c r="T4">
-        <v>0.0001655971560765921</v>
+        <v>0.0004139640053130706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2004523333333333</v>
+        <v>0.3811346666666666</v>
       </c>
       <c r="H5">
-        <v>0.6013569999999999</v>
+        <v>1.143404</v>
       </c>
       <c r="I5">
-        <v>0.00350521822469015</v>
+        <v>0.006090539251284117</v>
       </c>
       <c r="J5">
-        <v>0.003553987077041381</v>
+        <v>0.006344804244995461</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.275369</v>
+        <v>14.2963545</v>
       </c>
       <c r="N5">
-        <v>12.550738</v>
+        <v>28.592709</v>
       </c>
       <c r="O5">
-        <v>0.3413117198755005</v>
+        <v>0.4344595879613411</v>
       </c>
       <c r="P5">
-        <v>0.2567519648144067</v>
+        <v>0.3386885553801164</v>
       </c>
       <c r="Q5">
-        <v>1.257912358577666</v>
+        <v>5.448836306905999</v>
       </c>
       <c r="R5">
-        <v>7.547474151465998</v>
+        <v>32.693017841436</v>
       </c>
       <c r="S5">
-        <v>0.001196372060807944</v>
+        <v>0.002646093173575272</v>
       </c>
       <c r="T5">
-        <v>0.0009124931649553845</v>
+        <v>0.002148912583907143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2004523333333333</v>
+        <v>0.3811346666666666</v>
       </c>
       <c r="H6">
-        <v>0.6013569999999999</v>
+        <v>1.143404</v>
       </c>
       <c r="I6">
-        <v>0.00350521822469015</v>
+        <v>0.006090539251284117</v>
       </c>
       <c r="J6">
-        <v>0.003553987077041381</v>
+        <v>0.006344804244995461</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9663673333333334</v>
+        <v>6.430655333333333</v>
       </c>
       <c r="N6">
-        <v>2.899102</v>
+        <v>19.291966</v>
       </c>
       <c r="O6">
-        <v>0.05255985688992967</v>
+        <v>0.1954246354510446</v>
       </c>
       <c r="P6">
-        <v>0.0593072801533564</v>
+        <v>0.2285186791843446</v>
       </c>
       <c r="Q6">
-        <v>0.1937105868237778</v>
+        <v>2.450945676918222</v>
       </c>
       <c r="R6">
-        <v>1.743395281414</v>
+        <v>22.05851109226399</v>
       </c>
       <c r="S6">
-        <v>0.0001842337682576876</v>
+        <v>0.001190241412882477</v>
       </c>
       <c r="T6">
-        <v>0.0002107773072395014</v>
+        <v>0.001449906285749586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>163.896535</v>
       </c>
       <c r="I7">
-        <v>0.9553279024698591</v>
+        <v>0.8730232529945331</v>
       </c>
       <c r="J7">
-        <v>0.9686195843099198</v>
+        <v>0.9094698208227777</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.663160333333333</v>
+        <v>4.621119666666666</v>
       </c>
       <c r="N7">
-        <v>13.989481</v>
+        <v>13.863359</v>
       </c>
       <c r="O7">
-        <v>0.2536251292035914</v>
+        <v>0.1404336851258165</v>
       </c>
       <c r="P7">
-        <v>0.2861845043282563</v>
+        <v>0.164215326096801</v>
       </c>
       <c r="Q7">
-        <v>254.7586069275928</v>
+        <v>252.4618337290072</v>
       </c>
       <c r="R7">
-        <v>2292.827462348335</v>
+        <v>2272.156503561065</v>
       </c>
       <c r="S7">
-        <v>0.2422951626957139</v>
+        <v>0.1226018726185503</v>
       </c>
       <c r="T7">
-        <v>0.277203915618376</v>
+        <v>0.1493488832016116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>163.896535</v>
       </c>
       <c r="I8">
-        <v>0.9553279024698591</v>
+        <v>0.8730232529945331</v>
       </c>
       <c r="J8">
-        <v>0.9686195843099198</v>
+        <v>0.9094698208227777</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>17.165734</v>
       </c>
       <c r="O8">
-        <v>0.3112096512818797</v>
+        <v>0.1738862337410092</v>
       </c>
       <c r="P8">
-        <v>0.3511614959997941</v>
+        <v>0.203332872394125</v>
       </c>
       <c r="Q8">
         <v>312.6004803701878</v>
@@ -948,10 +948,10 @@
         <v>2813.40432333169</v>
       </c>
       <c r="S8">
-        <v>0.2973072633874945</v>
+        <v>0.1518067254315436</v>
       </c>
       <c r="T8">
-        <v>0.3401419022809701</v>
+        <v>0.1849251110236655</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>163.896535</v>
       </c>
       <c r="I9">
-        <v>0.9553279024698591</v>
+        <v>0.8730232529945331</v>
       </c>
       <c r="J9">
-        <v>0.9686195843099198</v>
+        <v>0.9094698208227777</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.7592263333333333</v>
+        <v>1.836022</v>
       </c>
       <c r="N9">
-        <v>2.277679</v>
+        <v>5.508065999999999</v>
       </c>
       <c r="O9">
-        <v>0.0412936427490989</v>
+        <v>0.05579585772078871</v>
       </c>
       <c r="P9">
-        <v>0.04659475470418655</v>
+        <v>0.06524456694461292</v>
       </c>
       <c r="Q9">
-        <v>41.47818843802945</v>
+        <v>100.3058813279233</v>
       </c>
       <c r="R9">
-        <v>373.303695942265</v>
+        <v>902.75293195131</v>
       </c>
       <c r="S9">
-        <v>0.03944896911283636</v>
+        <v>0.0487110812110231</v>
       </c>
       <c r="T9">
-        <v>0.04513259193259186</v>
+        <v>0.05933796460877683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>163.896535</v>
       </c>
       <c r="I10">
-        <v>0.9553279024698591</v>
+        <v>0.8730232529945331</v>
       </c>
       <c r="J10">
-        <v>0.9686195843099198</v>
+        <v>0.9094698208227777</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.275369</v>
+        <v>14.2963545</v>
       </c>
       <c r="N10">
-        <v>12.550738</v>
+        <v>28.592709</v>
       </c>
       <c r="O10">
-        <v>0.3413117198755005</v>
+        <v>0.4344595879613411</v>
       </c>
       <c r="P10">
-        <v>0.2567519648144067</v>
+        <v>0.3386885553801164</v>
       </c>
       <c r="Q10">
-        <v>342.8370783154717</v>
+        <v>781.0409885605525</v>
       </c>
       <c r="R10">
-        <v>2057.02246989283</v>
+        <v>4686.245931363315</v>
       </c>
       <c r="S10">
-        <v>0.326064609437042</v>
+        <v>0.3792933227766745</v>
       </c>
       <c r="T10">
-        <v>0.2486949814292857</v>
+        <v>0.3080270197762799</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>163.896535</v>
       </c>
       <c r="I11">
-        <v>0.9553279024698591</v>
+        <v>0.8730232529945331</v>
       </c>
       <c r="J11">
-        <v>0.9686195843099198</v>
+        <v>0.9094698208227777</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9663673333333334</v>
+        <v>6.430655333333333</v>
       </c>
       <c r="N11">
-        <v>2.899102</v>
+        <v>19.291966</v>
       </c>
       <c r="O11">
-        <v>0.05255985688992967</v>
+        <v>0.1954246354510446</v>
       </c>
       <c r="P11">
-        <v>0.0593072801533564</v>
+        <v>0.2285186791843446</v>
       </c>
       <c r="Q11">
-        <v>52.79475249017445</v>
+        <v>351.3207089708678</v>
       </c>
       <c r="R11">
-        <v>475.15277241157</v>
+        <v>3161.88638073781</v>
       </c>
       <c r="S11">
-        <v>0.05021189783677249</v>
+        <v>0.1706102509567417</v>
       </c>
       <c r="T11">
-        <v>0.05744619304869603</v>
+        <v>0.2078308422124437</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.3542035</v>
+        <v>0.041467</v>
       </c>
       <c r="H12">
-        <v>4.708407</v>
+        <v>0.124401</v>
       </c>
       <c r="I12">
-        <v>0.04116687930545086</v>
+        <v>0.0006626434518324191</v>
       </c>
       <c r="J12">
-        <v>0.02782642861303881</v>
+        <v>0.0006903071817849863</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.663160333333333</v>
+        <v>4.621119666666666</v>
       </c>
       <c r="N12">
-        <v>13.989481</v>
+        <v>13.863359</v>
       </c>
       <c r="O12">
-        <v>0.2536251292035914</v>
+        <v>0.1404336851258165</v>
       </c>
       <c r="P12">
-        <v>0.2861845043282563</v>
+        <v>0.164215326096801</v>
       </c>
       <c r="Q12">
-        <v>10.9780283777945</v>
+        <v>0.1916239692176666</v>
       </c>
       <c r="R12">
-        <v>65.868170266767</v>
+        <v>1.724615722959</v>
       </c>
       <c r="S12">
-        <v>0.01044095508275363</v>
+        <v>9.30574618653181E-05</v>
       </c>
       <c r="T12">
-        <v>0.00796349267984812</v>
+        <v>0.0001133590189637852</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.3542035</v>
+        <v>0.041467</v>
       </c>
       <c r="H13">
-        <v>4.708407</v>
+        <v>0.124401</v>
       </c>
       <c r="I13">
-        <v>0.04116687930545086</v>
+        <v>0.0006626434518324191</v>
       </c>
       <c r="J13">
-        <v>0.02782642861303881</v>
+        <v>0.0006903071817849863</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>17.165734</v>
       </c>
       <c r="O13">
-        <v>0.3112096512818797</v>
+        <v>0.1738862337410092</v>
       </c>
       <c r="P13">
-        <v>0.3511614959997941</v>
+        <v>0.203332872394125</v>
       </c>
       <c r="Q13">
-        <v>13.470543687623</v>
+        <v>0.2372704972593333</v>
       </c>
       <c r="R13">
-        <v>80.82326212573801</v>
+        <v>2.135434475334</v>
       </c>
       <c r="S13">
-        <v>0.01281153015301259</v>
+        <v>0.0001152245741522812</v>
       </c>
       <c r="T13">
-        <v>0.009771570300086185</v>
+        <v>0.0001403621421066346</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.3542035</v>
+        <v>0.041467</v>
       </c>
       <c r="H14">
-        <v>4.708407</v>
+        <v>0.124401</v>
       </c>
       <c r="I14">
-        <v>0.04116687930545086</v>
+        <v>0.0006626434518324191</v>
       </c>
       <c r="J14">
-        <v>0.02782642861303881</v>
+        <v>0.0006903071817849863</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.7592263333333333</v>
+        <v>1.836022</v>
       </c>
       <c r="N14">
-        <v>2.277679</v>
+        <v>5.508065999999999</v>
       </c>
       <c r="O14">
-        <v>0.0412936427490989</v>
+        <v>0.05579585772078871</v>
       </c>
       <c r="P14">
-        <v>0.04659475470418655</v>
+        <v>0.06524456694461292</v>
       </c>
       <c r="Q14">
-        <v>1.7873732912255</v>
+        <v>0.07613432427399999</v>
       </c>
       <c r="R14">
-        <v>10.724239747353</v>
+        <v>0.685208918466</v>
       </c>
       <c r="S14">
-        <v>0.001699930407134561</v>
+        <v>3.697275975805397E-05</v>
       </c>
       <c r="T14">
-        <v>0.001296565615518101</v>
+        <v>4.503879313431762E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.3542035</v>
+        <v>0.041467</v>
       </c>
       <c r="H15">
-        <v>4.708407</v>
+        <v>0.124401</v>
       </c>
       <c r="I15">
-        <v>0.04116687930545086</v>
+        <v>0.0006626434518324191</v>
       </c>
       <c r="J15">
-        <v>0.02782642861303881</v>
+        <v>0.0006903071817849863</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.275369</v>
+        <v>14.2963545</v>
       </c>
       <c r="N15">
-        <v>12.550738</v>
+        <v>28.592709</v>
       </c>
       <c r="O15">
-        <v>0.3413117198755005</v>
+        <v>0.4344595879613411</v>
       </c>
       <c r="P15">
-        <v>0.2567519648144067</v>
+        <v>0.3386885553801164</v>
       </c>
       <c r="Q15">
-        <v>14.7734956635915</v>
+        <v>0.5928269320514999</v>
       </c>
       <c r="R15">
-        <v>59.093982654366</v>
+        <v>3.556961592309</v>
       </c>
       <c r="S15">
-        <v>0.01405073837765058</v>
+        <v>0.0002878918010483936</v>
       </c>
       <c r="T15">
-        <v>0.007144490220165539</v>
+        <v>0.0002337991421672764</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.3542035</v>
+        <v>0.041467</v>
       </c>
       <c r="H16">
-        <v>4.708407</v>
+        <v>0.124401</v>
       </c>
       <c r="I16">
-        <v>0.04116687930545086</v>
+        <v>0.0006626434518324191</v>
       </c>
       <c r="J16">
-        <v>0.02782642861303881</v>
+        <v>0.0006903071817849863</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9663673333333334</v>
+        <v>6.430655333333333</v>
       </c>
       <c r="N16">
-        <v>2.899102</v>
+        <v>19.291966</v>
       </c>
       <c r="O16">
-        <v>0.05255985688992967</v>
+        <v>0.1954246354510446</v>
       </c>
       <c r="P16">
-        <v>0.0593072801533564</v>
+        <v>0.2285186791843446</v>
       </c>
       <c r="Q16">
-        <v>2.275025358419</v>
+        <v>0.2666599847073333</v>
       </c>
       <c r="R16">
-        <v>13.650152150514</v>
+        <v>2.399939862366</v>
       </c>
       <c r="S16">
-        <v>0.002163725284899505</v>
+        <v>0.0001294968550083723</v>
       </c>
       <c r="T16">
-        <v>0.001650309797420865</v>
+        <v>0.0001577480854129724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.523368</v>
+      </c>
+      <c r="H17">
+        <v>15.046736</v>
+      </c>
+      <c r="I17">
+        <v>0.1202235643023504</v>
+      </c>
+      <c r="J17">
+        <v>0.0834950677504417</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.621119666666666</v>
+      </c>
+      <c r="N17">
+        <v>13.863359</v>
+      </c>
+      <c r="O17">
+        <v>0.1404336851258165</v>
+      </c>
+      <c r="P17">
+        <v>0.164215326096801</v>
+      </c>
+      <c r="Q17">
+        <v>34.76638382437066</v>
+      </c>
+      <c r="R17">
+        <v>208.598302946224</v>
+      </c>
+      <c r="S17">
+        <v>0.01688343817393963</v>
+      </c>
+      <c r="T17">
+        <v>0.01371116977811327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.523368</v>
+      </c>
+      <c r="H18">
+        <v>15.046736</v>
+      </c>
+      <c r="I18">
+        <v>0.1202235643023504</v>
+      </c>
+      <c r="J18">
+        <v>0.0834950677504417</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.721911333333334</v>
+      </c>
+      <c r="N18">
+        <v>17.165734</v>
+      </c>
+      <c r="O18">
+        <v>0.1738862337410092</v>
+      </c>
+      <c r="P18">
+        <v>0.203332872394125</v>
+      </c>
+      <c r="Q18">
+        <v>43.04804462403733</v>
+      </c>
+      <c r="R18">
+        <v>258.288267744224</v>
+      </c>
+      <c r="S18">
+        <v>0.02090522280345575</v>
+      </c>
+      <c r="T18">
+        <v>0.01697729195643938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.523368</v>
+      </c>
+      <c r="H19">
+        <v>15.046736</v>
+      </c>
+      <c r="I19">
+        <v>0.1202235643023504</v>
+      </c>
+      <c r="J19">
+        <v>0.0834950677504417</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>1.836022</v>
+      </c>
+      <c r="N19">
+        <v>5.508065999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.05579585772078871</v>
+      </c>
+      <c r="P19">
+        <v>0.06524456694461292</v>
+      </c>
+      <c r="Q19">
+        <v>13.813069162096</v>
+      </c>
+      <c r="R19">
+        <v>82.87841497257598</v>
+      </c>
+      <c r="S19">
+        <v>0.006707976888500036</v>
+      </c>
+      <c r="T19">
+        <v>0.005447599537388685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.523368</v>
+      </c>
+      <c r="H20">
+        <v>15.046736</v>
+      </c>
+      <c r="I20">
+        <v>0.1202235643023504</v>
+      </c>
+      <c r="J20">
+        <v>0.0834950677504417</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.2963545</v>
+      </c>
+      <c r="N20">
+        <v>28.592709</v>
+      </c>
+      <c r="O20">
+        <v>0.4344595879613411</v>
+      </c>
+      <c r="P20">
+        <v>0.3386885553801164</v>
+      </c>
+      <c r="Q20">
+        <v>107.556735961956</v>
+      </c>
+      <c r="R20">
+        <v>430.226943847824</v>
+      </c>
+      <c r="S20">
+        <v>0.05223228021004295</v>
+      </c>
+      <c r="T20">
+        <v>0.02827882387776205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.523368</v>
+      </c>
+      <c r="H21">
+        <v>15.046736</v>
+      </c>
+      <c r="I21">
+        <v>0.1202235643023504</v>
+      </c>
+      <c r="J21">
+        <v>0.0834950677504417</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.430655333333333</v>
+      </c>
+      <c r="N21">
+        <v>19.291966</v>
+      </c>
+      <c r="O21">
+        <v>0.1954246354510446</v>
+      </c>
+      <c r="P21">
+        <v>0.2285186791843446</v>
+      </c>
+      <c r="Q21">
+        <v>48.38018655382933</v>
+      </c>
+      <c r="R21">
+        <v>290.2811193229759</v>
+      </c>
+      <c r="S21">
+        <v>0.02349464622641204</v>
+      </c>
+      <c r="T21">
+        <v>0.01908018260073831</v>
       </c>
     </row>
   </sheetData>
